--- a/Code/Results/Cases/Case_1_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015487472651449</v>
+        <v>1.046220375459431</v>
       </c>
       <c r="D2">
-        <v>1.041410412066911</v>
+        <v>1.053886849242428</v>
       </c>
       <c r="E2">
-        <v>1.030093119155856</v>
+        <v>1.053598608582881</v>
       </c>
       <c r="F2">
-        <v>1.041837926093904</v>
+        <v>1.06376747284704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051540784833406</v>
+        <v>1.043905258353602</v>
       </c>
       <c r="J2">
-        <v>1.037214621759161</v>
+        <v>1.051275932400249</v>
       </c>
       <c r="K2">
-        <v>1.052321474284446</v>
+        <v>1.056631579472896</v>
       </c>
       <c r="L2">
-        <v>1.041148543581144</v>
+        <v>1.056344134153944</v>
       </c>
       <c r="M2">
-        <v>1.052743611673057</v>
+        <v>1.066485221650932</v>
       </c>
       <c r="N2">
-        <v>1.015891051775549</v>
+        <v>1.020904100012277</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020290295909516</v>
+        <v>1.047241206148459</v>
       </c>
       <c r="D3">
-        <v>1.044496647320705</v>
+        <v>1.054557949145935</v>
       </c>
       <c r="E3">
-        <v>1.033992972226951</v>
+        <v>1.054475845473333</v>
       </c>
       <c r="F3">
-        <v>1.045778165988438</v>
+        <v>1.06465510024825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052862138331296</v>
+        <v>1.044134300124469</v>
       </c>
       <c r="J3">
-        <v>1.040242705173394</v>
+        <v>1.051944391112135</v>
       </c>
       <c r="K3">
-        <v>1.054590163312356</v>
+        <v>1.05711617674884</v>
       </c>
       <c r="L3">
-        <v>1.044208624549756</v>
+        <v>1.057034283290932</v>
       </c>
       <c r="M3">
-        <v>1.055856987815333</v>
+        <v>1.067187741855793</v>
       </c>
       <c r="N3">
-        <v>1.016931844582075</v>
+        <v>1.021130675458881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023334596725708</v>
+        <v>1.047902230417211</v>
       </c>
       <c r="D4">
-        <v>1.046457303878042</v>
+        <v>1.054992548558462</v>
       </c>
       <c r="E4">
-        <v>1.036471051946491</v>
+        <v>1.055044245255549</v>
       </c>
       <c r="F4">
-        <v>1.048282510478943</v>
+        <v>1.065230253682419</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053691493894981</v>
+        <v>1.044281531998373</v>
       </c>
       <c r="J4">
-        <v>1.0421596667842</v>
+        <v>1.052376802550586</v>
       </c>
       <c r="K4">
-        <v>1.056025587974736</v>
+        <v>1.057429413212578</v>
       </c>
       <c r="L4">
-        <v>1.046148361848477</v>
+        <v>1.057480984194527</v>
       </c>
       <c r="M4">
-        <v>1.057831142907097</v>
+        <v>1.067642478163081</v>
       </c>
       <c r="N4">
-        <v>1.017590274344979</v>
+        <v>1.021277133313038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024599789079938</v>
+        <v>1.048180238968567</v>
       </c>
       <c r="D5">
-        <v>1.047273124490922</v>
+        <v>1.055175337234724</v>
       </c>
       <c r="E5">
-        <v>1.037502345733908</v>
+        <v>1.055283383420295</v>
       </c>
       <c r="F5">
-        <v>1.049324867799641</v>
+        <v>1.065472238174725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054034161010162</v>
+        <v>1.044343194729999</v>
       </c>
       <c r="J5">
-        <v>1.042955728230405</v>
+        <v>1.052558557356044</v>
       </c>
       <c r="K5">
-        <v>1.056621459888734</v>
+        <v>1.057561017761279</v>
       </c>
       <c r="L5">
-        <v>1.046954480344562</v>
+        <v>1.0576688070383</v>
       </c>
       <c r="M5">
-        <v>1.058651706716708</v>
+        <v>1.067833686230574</v>
       </c>
       <c r="N5">
-        <v>1.017863586761018</v>
+        <v>1.021338667540455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024811378118907</v>
+        <v>1.048226924491838</v>
       </c>
       <c r="D6">
-        <v>1.047409616844186</v>
+        <v>1.055206033089039</v>
       </c>
       <c r="E6">
-        <v>1.037674899860851</v>
+        <v>1.055323546461591</v>
       </c>
       <c r="F6">
-        <v>1.049499280552664</v>
+        <v>1.06551287953815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054091348955724</v>
+        <v>1.044353534464155</v>
       </c>
       <c r="J6">
-        <v>1.043088823180714</v>
+        <v>1.052589072949109</v>
       </c>
       <c r="K6">
-        <v>1.056721070971562</v>
+        <v>1.057583110021181</v>
       </c>
       <c r="L6">
-        <v>1.047089291810509</v>
+        <v>1.057700345039996</v>
       </c>
       <c r="M6">
-        <v>1.058788941997837</v>
+        <v>1.067865793040237</v>
       </c>
       <c r="N6">
-        <v>1.017909275400432</v>
+        <v>1.021348997248149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023351559062594</v>
+        <v>1.047905944734097</v>
       </c>
       <c r="D7">
-        <v>1.046468237736126</v>
+        <v>1.054994990665003</v>
       </c>
       <c r="E7">
-        <v>1.036484872883385</v>
+        <v>1.055047439914216</v>
       </c>
       <c r="F7">
-        <v>1.048296479173829</v>
+        <v>1.06523348634619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053696095993016</v>
+        <v>1.044282356857114</v>
       </c>
       <c r="J7">
-        <v>1.04217034200057</v>
+        <v>1.052379231289838</v>
       </c>
       <c r="K7">
-        <v>1.056033579551515</v>
+        <v>1.057431172034795</v>
       </c>
       <c r="L7">
-        <v>1.04615916957054</v>
+        <v>1.057483493776681</v>
       </c>
       <c r="M7">
-        <v>1.057842143751861</v>
+        <v>1.067645032950908</v>
       </c>
       <c r="N7">
-        <v>1.017593939939379</v>
+        <v>1.021277955680871</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017124091322844</v>
+        <v>1.046565270510025</v>
       </c>
       <c r="D8">
-        <v>1.04246110637558</v>
+        <v>1.054113576684417</v>
       </c>
       <c r="E8">
-        <v>1.0314207216197</v>
+        <v>1.05389491499745</v>
       </c>
       <c r="F8">
-        <v>1.043179144096046</v>
+        <v>1.064067284413697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05199274362555</v>
+        <v>1.043982865355286</v>
       </c>
       <c r="J8">
-        <v>1.038246958511732</v>
+        <v>1.05150186677634</v>
       </c>
       <c r="K8">
-        <v>1.053095065682495</v>
+        <v>1.056795419216353</v>
       </c>
       <c r="L8">
-        <v>1.042191256682524</v>
+        <v>1.056577346173265</v>
       </c>
       <c r="M8">
-        <v>1.053804345329647</v>
+        <v>1.066722608119813</v>
       </c>
       <c r="N8">
-        <v>1.016245971645266</v>
+        <v>1.020980703421571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005637988933378</v>
+        <v>1.044206523589279</v>
       </c>
       <c r="D9">
-        <v>1.035109280544238</v>
+        <v>1.052563177271093</v>
       </c>
       <c r="E9">
-        <v>1.022131644487428</v>
+        <v>1.051869958938809</v>
       </c>
       <c r="F9">
-        <v>1.033797837058518</v>
+        <v>1.062018466855965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048787813199446</v>
+        <v>1.043447689491414</v>
       </c>
       <c r="J9">
-        <v>1.030993214203912</v>
+        <v>1.0499549077716</v>
       </c>
       <c r="K9">
-        <v>1.047657305464435</v>
+        <v>1.055672653924425</v>
       </c>
       <c r="L9">
-        <v>1.034875573642968</v>
+        <v>1.054981621361359</v>
       </c>
       <c r="M9">
-        <v>1.046365374777908</v>
+        <v>1.065098441416134</v>
       </c>
       <c r="N9">
-        <v>1.013750429889588</v>
+        <v>1.020455761612548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9975963292063493</v>
+        <v>1.04263654304556</v>
       </c>
       <c r="D10">
-        <v>1.029994190060134</v>
+        <v>1.051531519388439</v>
       </c>
       <c r="E10">
-        <v>1.015666802121241</v>
+        <v>1.050524050613492</v>
       </c>
       <c r="F10">
-        <v>1.02727324393629</v>
+        <v>1.060656821375043</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046504047976475</v>
+        <v>1.043085936983683</v>
       </c>
       <c r="J10">
-        <v>1.02590563967352</v>
+        <v>1.048923021859836</v>
       </c>
       <c r="K10">
-        <v>1.043842215226044</v>
+        <v>1.054922528283693</v>
       </c>
       <c r="L10">
-        <v>1.029758834109575</v>
+        <v>1.053918546625454</v>
       </c>
       <c r="M10">
-        <v>1.041166933723514</v>
+        <v>1.064016576921716</v>
       </c>
       <c r="N10">
-        <v>1.011998258688658</v>
+        <v>1.02010505131308</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940134093731158</v>
+        <v>1.041957327980737</v>
       </c>
       <c r="D11">
-        <v>1.027724136532201</v>
+        <v>1.051085278042012</v>
       </c>
       <c r="E11">
-        <v>1.012796510461826</v>
+        <v>1.049942235149113</v>
       </c>
       <c r="F11">
-        <v>1.024377678253987</v>
+        <v>1.060068234084552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045477732314283</v>
+        <v>1.042928121710911</v>
       </c>
       <c r="J11">
-        <v>1.023637375807869</v>
+        <v>1.048476075635133</v>
       </c>
       <c r="K11">
-        <v>1.042141494074972</v>
+        <v>1.054597344306137</v>
       </c>
       <c r="L11">
-        <v>1.027481071925553</v>
+        <v>1.053458410559253</v>
       </c>
       <c r="M11">
-        <v>1.038854058768692</v>
+        <v>1.063548347445032</v>
       </c>
       <c r="N11">
-        <v>1.011216712007601</v>
+        <v>1.01995301651804</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9926665131201928</v>
+        <v>1.04170512740409</v>
       </c>
       <c r="D12">
-        <v>1.026872239571264</v>
+        <v>1.050919596633123</v>
       </c>
       <c r="E12">
-        <v>1.011719104802596</v>
+        <v>1.049726270077934</v>
       </c>
       <c r="F12">
-        <v>1.023290992482691</v>
+        <v>1.059849760210192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045090657225378</v>
+        <v>1.042869326160401</v>
       </c>
       <c r="J12">
-        <v>1.022784515057285</v>
+        <v>1.04831004065582</v>
       </c>
       <c r="K12">
-        <v>1.041502104288848</v>
+        <v>1.054476501144992</v>
       </c>
       <c r="L12">
-        <v>1.026625177368561</v>
+        <v>1.053287523781272</v>
       </c>
       <c r="M12">
-        <v>1.03798517572519</v>
+        <v>1.063374460999481</v>
       </c>
       <c r="N12">
-        <v>1.010922807731124</v>
+        <v>1.019896518077131</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929561678461012</v>
+        <v>1.041759221197277</v>
       </c>
       <c r="D13">
-        <v>1.027055374802506</v>
+        <v>1.050955132554942</v>
       </c>
       <c r="E13">
-        <v>1.011950731037841</v>
+        <v>1.049772588644542</v>
       </c>
       <c r="F13">
-        <v>1.023524604148675</v>
+        <v>1.059896616624196</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045173955042217</v>
+        <v>1.042881945959494</v>
       </c>
       <c r="J13">
-        <v>1.022967932548825</v>
+        <v>1.048345656582343</v>
       </c>
       <c r="K13">
-        <v>1.041639608205682</v>
+        <v>1.054502424903175</v>
       </c>
       <c r="L13">
-        <v>1.026809222844648</v>
+        <v>1.053324178283372</v>
       </c>
       <c r="M13">
-        <v>1.038172004589364</v>
+        <v>1.063411758639675</v>
       </c>
       <c r="N13">
-        <v>1.010986017119905</v>
+        <v>1.019908638353406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.993902407117608</v>
+        <v>1.04193647916083</v>
       </c>
       <c r="D14">
-        <v>1.027653898350789</v>
+        <v>1.051071581278171</v>
       </c>
       <c r="E14">
-        <v>1.012707684852107</v>
+        <v>1.049924380401802</v>
       </c>
       <c r="F14">
-        <v>1.024288083238574</v>
+        <v>1.06005017182407</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045445857423601</v>
+        <v>1.042923265238665</v>
       </c>
       <c r="J14">
-        <v>1.023567091836</v>
+        <v>1.04846235152059</v>
       </c>
       <c r="K14">
-        <v>1.042088800355612</v>
+        <v>1.054587356496544</v>
       </c>
       <c r="L14">
-        <v>1.027410526948317</v>
+        <v>1.053444284423746</v>
       </c>
       <c r="M14">
-        <v>1.038782438970841</v>
+        <v>1.063533973220727</v>
       </c>
       <c r="N14">
-        <v>1.011192492320698</v>
+        <v>1.019948346866719</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9944832630709801</v>
+        <v>1.042045705601014</v>
       </c>
       <c r="D15">
-        <v>1.028021503255284</v>
+        <v>1.051143338827653</v>
       </c>
       <c r="E15">
-        <v>1.013172559835371</v>
+        <v>1.050017923838221</v>
       </c>
       <c r="F15">
-        <v>1.024756993508144</v>
+        <v>1.060144802649433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045612602284857</v>
+        <v>1.042948700111331</v>
       </c>
       <c r="J15">
-        <v>1.023934869268298</v>
+        <v>1.04853424859357</v>
       </c>
       <c r="K15">
-        <v>1.042364536038108</v>
+        <v>1.054639678347324</v>
       </c>
       <c r="L15">
-        <v>1.027779692126354</v>
+        <v>1.053518289549108</v>
       </c>
       <c r="M15">
-        <v>1.039157237215034</v>
+        <v>1.063609278303788</v>
       </c>
       <c r="N15">
-        <v>1.011319225751045</v>
+        <v>1.019972809163777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9978319168079246</v>
+        <v>1.042681632927597</v>
       </c>
       <c r="D16">
-        <v>1.030143649217726</v>
+        <v>1.051561145047563</v>
       </c>
       <c r="E16">
-        <v>1.015855749294512</v>
+        <v>1.05056268435726</v>
       </c>
       <c r="F16">
-        <v>1.027463882556168</v>
+        <v>1.06069590545223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046571353097522</v>
+        <v>1.043096385966597</v>
       </c>
       <c r="J16">
-        <v>1.0260547577832</v>
+        <v>1.048952681470445</v>
       </c>
       <c r="K16">
-        <v>1.043954030614105</v>
+        <v>1.054944101859783</v>
       </c>
       <c r="L16">
-        <v>1.02990865054249</v>
+        <v>1.053949088254706</v>
       </c>
       <c r="M16">
-        <v>1.041319087228973</v>
+        <v>1.064047656597982</v>
       </c>
       <c r="N16">
-        <v>1.01204963174436</v>
+        <v>1.020115137704594</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999048348302337</v>
+        <v>1.043080693465847</v>
       </c>
       <c r="D17">
-        <v>1.0314597616908</v>
+        <v>1.051823351551407</v>
       </c>
       <c r="E17">
-        <v>1.017519438899997</v>
+        <v>1.050904659177439</v>
       </c>
       <c r="F17">
-        <v>1.029142610563387</v>
+        <v>1.061041870112208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047162572086575</v>
+        <v>1.043188711396717</v>
       </c>
       <c r="J17">
-        <v>1.027366670586566</v>
+        <v>1.049215118296109</v>
       </c>
       <c r="K17">
-        <v>1.044937790638621</v>
+        <v>1.055134959045161</v>
       </c>
       <c r="L17">
-        <v>1.031227106997278</v>
+        <v>1.054219366313421</v>
       </c>
       <c r="M17">
-        <v>1.042658256118926</v>
+        <v>1.064322700681374</v>
       </c>
       <c r="N17">
-        <v>1.012501563046816</v>
+        <v>1.020204370040405</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00110426800983</v>
+        <v>1.043313516283934</v>
       </c>
       <c r="D18">
-        <v>1.032222132112694</v>
+        <v>1.051976337745153</v>
       </c>
       <c r="E18">
-        <v>1.018483034976792</v>
+        <v>1.051104220987059</v>
       </c>
       <c r="F18">
-        <v>1.030115034725526</v>
+        <v>1.061243763213576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047503825175505</v>
+        <v>1.04324244994859</v>
       </c>
       <c r="J18">
-        <v>1.028125622243032</v>
+        <v>1.049368180394382</v>
       </c>
       <c r="K18">
-        <v>1.045506920592075</v>
+        <v>1.055246246604069</v>
       </c>
       <c r="L18">
-        <v>1.031990175751889</v>
+        <v>1.054377032465158</v>
       </c>
       <c r="M18">
-        <v>1.04343343057361</v>
+        <v>1.064483150880978</v>
       </c>
       <c r="N18">
-        <v>1.012762974886869</v>
+        <v>1.020256400852623</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001511630430668</v>
+        <v>1.04339291259688</v>
       </c>
       <c r="D19">
-        <v>1.032481194395486</v>
+        <v>1.052028509772075</v>
       </c>
       <c r="E19">
-        <v>1.018810459149284</v>
+        <v>1.051172282263551</v>
       </c>
       <c r="F19">
-        <v>1.030445478106828</v>
+        <v>1.061312620087995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04761958068347</v>
+        <v>1.043260754172948</v>
       </c>
       <c r="J19">
-        <v>1.028383357536359</v>
+        <v>1.049420368411444</v>
       </c>
       <c r="K19">
-        <v>1.04570019523665</v>
+        <v>1.055284186615883</v>
       </c>
       <c r="L19">
-        <v>1.032249365111388</v>
+        <v>1.05443079549634</v>
       </c>
       <c r="M19">
-        <v>1.0436967514093</v>
+        <v>1.064537863891752</v>
       </c>
       <c r="N19">
-        <v>1.012851742750221</v>
+        <v>1.020274139138459</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9996834362611472</v>
+        <v>1.043037872089863</v>
       </c>
       <c r="D20">
-        <v>1.03131910589367</v>
+        <v>1.051795214550866</v>
       </c>
       <c r="E20">
-        <v>1.017341648843665</v>
+        <v>1.050867958817573</v>
       </c>
       <c r="F20">
-        <v>1.028963201067714</v>
+        <v>1.061004741256434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047099513353219</v>
+        <v>1.043178817468651</v>
       </c>
       <c r="J20">
-        <v>1.0272265663659</v>
+        <v>1.049186962633664</v>
       </c>
       <c r="K20">
-        <v>1.044832729022232</v>
+        <v>1.055114485613883</v>
       </c>
       <c r="L20">
-        <v>1.031086269477168</v>
+        <v>1.054190366215901</v>
       </c>
       <c r="M20">
-        <v>1.042515193719712</v>
+        <v>1.064293188808529</v>
       </c>
       <c r="N20">
-        <v>1.012453303024237</v>
+        <v>1.020194798000857</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9936242135234585</v>
+        <v>1.041884278616497</v>
       </c>
       <c r="D21">
-        <v>1.027477891598135</v>
+        <v>1.051037288019234</v>
       </c>
       <c r="E21">
-        <v>1.01248509635386</v>
+        <v>1.049879677443084</v>
       </c>
       <c r="F21">
-        <v>1.024063570081038</v>
+        <v>1.060004949393119</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045365952545064</v>
+        <v>1.0429111025937</v>
       </c>
       <c r="J21">
-        <v>1.023390943740341</v>
+        <v>1.048427988295588</v>
       </c>
       <c r="K21">
-        <v>1.041956738940427</v>
+        <v>1.054562347779705</v>
       </c>
       <c r="L21">
-        <v>1.027233733408996</v>
+        <v>1.053408915372411</v>
       </c>
       <c r="M21">
-        <v>1.03860295518107</v>
+        <v>1.063497983102985</v>
       </c>
       <c r="N21">
-        <v>1.01113179141579</v>
+        <v>1.019936654412906</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897212443697601</v>
+        <v>1.041159490375138</v>
       </c>
       <c r="D22">
-        <v>1.025012221704471</v>
+        <v>1.050561169650577</v>
       </c>
       <c r="E22">
-        <v>1.009366168782365</v>
+        <v>1.049259157328878</v>
       </c>
       <c r="F22">
-        <v>1.020918191208761</v>
+        <v>1.059377230186269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044241987170216</v>
+        <v>1.042741761968507</v>
       </c>
       <c r="J22">
-        <v>1.020919306939235</v>
+        <v>1.047950679974359</v>
       </c>
       <c r="K22">
-        <v>1.040103949292086</v>
+        <v>1.054214877013993</v>
       </c>
       <c r="L22">
-        <v>1.024754335812933</v>
+        <v>1.052917750050221</v>
       </c>
       <c r="M22">
-        <v>1.036086340628844</v>
+        <v>1.062998207739744</v>
       </c>
       <c r="N22">
-        <v>1.010279964754621</v>
+        <v>1.019774199326596</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9917994409625127</v>
+        <v>1.041543664720577</v>
       </c>
       <c r="D23">
-        <v>1.026324254358941</v>
+        <v>1.050813528721627</v>
       </c>
       <c r="E23">
-        <v>1.011025979969547</v>
+        <v>1.049588025689072</v>
       </c>
       <c r="F23">
-        <v>1.022591958182674</v>
+        <v>1.059709911260813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044841127884715</v>
+        <v>1.042831628947209</v>
       </c>
       <c r="J23">
-        <v>1.022235440013294</v>
+        <v>1.04820372043545</v>
       </c>
       <c r="K23">
-        <v>1.04109048998359</v>
+        <v>1.054399107843482</v>
       </c>
       <c r="L23">
-        <v>1.026074302067772</v>
+        <v>1.053178110264794</v>
       </c>
       <c r="M23">
-        <v>1.037426000783723</v>
+        <v>1.063263128622614</v>
       </c>
       <c r="N23">
-        <v>1.010733579364073</v>
+        <v>1.019860333946051</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9997835065465087</v>
+        <v>1.043057221048566</v>
       </c>
       <c r="D24">
-        <v>1.031382678529999</v>
+        <v>1.051807928309598</v>
       </c>
       <c r="E24">
-        <v>1.017422005506901</v>
+        <v>1.050884541841076</v>
       </c>
       <c r="F24">
-        <v>1.029044289312843</v>
+        <v>1.061021517886198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047128017972997</v>
+        <v>1.043183288459007</v>
       </c>
       <c r="J24">
-        <v>1.027289892755392</v>
+        <v>1.049199685005351</v>
       </c>
       <c r="K24">
-        <v>1.044880216284232</v>
+        <v>1.055123736788176</v>
       </c>
       <c r="L24">
-        <v>1.031149926286947</v>
+        <v>1.054203470057562</v>
       </c>
       <c r="M24">
-        <v>1.042579855782026</v>
+        <v>1.064306523886771</v>
       </c>
       <c r="N24">
-        <v>1.012475116412752</v>
+        <v>1.020199123245746</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008672077267675</v>
+        <v>1.044815875072951</v>
       </c>
       <c r="D25">
-        <v>1.037046182449091</v>
+        <v>1.052963656505506</v>
       </c>
       <c r="E25">
-        <v>1.024579014524907</v>
+        <v>1.052392747622107</v>
       </c>
       <c r="F25">
-        <v>1.03626880307132</v>
+        <v>1.062547394964673</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049641496704751</v>
+        <v>1.043586923184081</v>
       </c>
       <c r="J25">
-        <v>1.032911074962725</v>
+        <v>1.050354939330049</v>
       </c>
       <c r="K25">
-        <v>1.049095390013479</v>
+        <v>1.055963204577954</v>
       </c>
       <c r="L25">
-        <v>1.036807389245715</v>
+        <v>1.055394027683757</v>
       </c>
       <c r="M25">
-        <v>1.048329023074749</v>
+        <v>1.06551817112825</v>
       </c>
       <c r="N25">
-        <v>1.014410591782995</v>
+        <v>1.020591605222244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046220375459431</v>
+        <v>1.015487472651449</v>
       </c>
       <c r="D2">
-        <v>1.053886849242428</v>
+        <v>1.041410412066911</v>
       </c>
       <c r="E2">
-        <v>1.053598608582881</v>
+        <v>1.030093119155856</v>
       </c>
       <c r="F2">
-        <v>1.06376747284704</v>
+        <v>1.041837926093903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043905258353602</v>
+        <v>1.051540784833406</v>
       </c>
       <c r="J2">
-        <v>1.051275932400249</v>
+        <v>1.037214621759161</v>
       </c>
       <c r="K2">
-        <v>1.056631579472896</v>
+        <v>1.052321474284445</v>
       </c>
       <c r="L2">
-        <v>1.056344134153944</v>
+        <v>1.041148543581143</v>
       </c>
       <c r="M2">
-        <v>1.066485221650932</v>
+        <v>1.052743611673056</v>
       </c>
       <c r="N2">
-        <v>1.020904100012277</v>
+        <v>1.015891051775549</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047241206148459</v>
+        <v>1.020290295909516</v>
       </c>
       <c r="D3">
-        <v>1.054557949145935</v>
+        <v>1.044496647320704</v>
       </c>
       <c r="E3">
-        <v>1.054475845473333</v>
+        <v>1.033992972226951</v>
       </c>
       <c r="F3">
-        <v>1.06465510024825</v>
+        <v>1.045778165988438</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044134300124469</v>
+        <v>1.052862138331296</v>
       </c>
       <c r="J3">
-        <v>1.051944391112135</v>
+        <v>1.040242705173394</v>
       </c>
       <c r="K3">
-        <v>1.05711617674884</v>
+        <v>1.054590163312356</v>
       </c>
       <c r="L3">
-        <v>1.057034283290932</v>
+        <v>1.044208624549755</v>
       </c>
       <c r="M3">
-        <v>1.067187741855793</v>
+        <v>1.055856987815333</v>
       </c>
       <c r="N3">
-        <v>1.021130675458881</v>
+        <v>1.016931844582075</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047902230417211</v>
+        <v>1.023334596725708</v>
       </c>
       <c r="D4">
-        <v>1.054992548558462</v>
+        <v>1.046457303878042</v>
       </c>
       <c r="E4">
-        <v>1.055044245255549</v>
+        <v>1.036471051946492</v>
       </c>
       <c r="F4">
-        <v>1.065230253682419</v>
+        <v>1.048282510478944</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044281531998373</v>
+        <v>1.053691493894982</v>
       </c>
       <c r="J4">
-        <v>1.052376802550586</v>
+        <v>1.0421596667842</v>
       </c>
       <c r="K4">
-        <v>1.057429413212578</v>
+        <v>1.056025587974736</v>
       </c>
       <c r="L4">
-        <v>1.057480984194527</v>
+        <v>1.046148361848478</v>
       </c>
       <c r="M4">
-        <v>1.067642478163081</v>
+        <v>1.057831142907097</v>
       </c>
       <c r="N4">
-        <v>1.021277133313038</v>
+        <v>1.017590274344979</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048180238968567</v>
+        <v>1.024599789079938</v>
       </c>
       <c r="D5">
-        <v>1.055175337234724</v>
+        <v>1.047273124490922</v>
       </c>
       <c r="E5">
-        <v>1.055283383420295</v>
+        <v>1.037502345733908</v>
       </c>
       <c r="F5">
-        <v>1.065472238174725</v>
+        <v>1.049324867799641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044343194729999</v>
+        <v>1.054034161010162</v>
       </c>
       <c r="J5">
-        <v>1.052558557356044</v>
+        <v>1.042955728230405</v>
       </c>
       <c r="K5">
-        <v>1.057561017761279</v>
+        <v>1.056621459888734</v>
       </c>
       <c r="L5">
-        <v>1.0576688070383</v>
+        <v>1.046954480344562</v>
       </c>
       <c r="M5">
-        <v>1.067833686230574</v>
+        <v>1.058651706716707</v>
       </c>
       <c r="N5">
-        <v>1.021338667540455</v>
+        <v>1.017863586761019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048226924491838</v>
+        <v>1.024811378118907</v>
       </c>
       <c r="D6">
-        <v>1.055206033089039</v>
+        <v>1.047409616844186</v>
       </c>
       <c r="E6">
-        <v>1.055323546461591</v>
+        <v>1.037674899860851</v>
       </c>
       <c r="F6">
-        <v>1.06551287953815</v>
+        <v>1.049499280552663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044353534464155</v>
+        <v>1.054091348955724</v>
       </c>
       <c r="J6">
-        <v>1.052589072949109</v>
+        <v>1.043088823180714</v>
       </c>
       <c r="K6">
-        <v>1.057583110021181</v>
+        <v>1.056721070971562</v>
       </c>
       <c r="L6">
-        <v>1.057700345039996</v>
+        <v>1.047089291810509</v>
       </c>
       <c r="M6">
-        <v>1.067865793040237</v>
+        <v>1.058788941997837</v>
       </c>
       <c r="N6">
-        <v>1.021348997248149</v>
+        <v>1.017909275400431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047905944734097</v>
+        <v>1.023351559062594</v>
       </c>
       <c r="D7">
-        <v>1.054994990665003</v>
+        <v>1.046468237736126</v>
       </c>
       <c r="E7">
-        <v>1.055047439914216</v>
+        <v>1.036484872883385</v>
       </c>
       <c r="F7">
-        <v>1.06523348634619</v>
+        <v>1.048296479173829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044282356857114</v>
+        <v>1.053696095993016</v>
       </c>
       <c r="J7">
-        <v>1.052379231289838</v>
+        <v>1.04217034200057</v>
       </c>
       <c r="K7">
-        <v>1.057431172034795</v>
+        <v>1.056033579551515</v>
       </c>
       <c r="L7">
-        <v>1.057483493776681</v>
+        <v>1.04615916957054</v>
       </c>
       <c r="M7">
-        <v>1.067645032950908</v>
+        <v>1.05784214375186</v>
       </c>
       <c r="N7">
-        <v>1.021277955680871</v>
+        <v>1.017593939939379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046565270510025</v>
+        <v>1.017124091322843</v>
       </c>
       <c r="D8">
-        <v>1.054113576684417</v>
+        <v>1.042461106375579</v>
       </c>
       <c r="E8">
-        <v>1.05389491499745</v>
+        <v>1.031420721619699</v>
       </c>
       <c r="F8">
-        <v>1.064067284413697</v>
+        <v>1.043179144096045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043982865355286</v>
+        <v>1.051992743625549</v>
       </c>
       <c r="J8">
-        <v>1.05150186677634</v>
+        <v>1.038246958511732</v>
       </c>
       <c r="K8">
-        <v>1.056795419216353</v>
+        <v>1.053095065682494</v>
       </c>
       <c r="L8">
-        <v>1.056577346173265</v>
+        <v>1.042191256682524</v>
       </c>
       <c r="M8">
-        <v>1.066722608119813</v>
+        <v>1.053804345329646</v>
       </c>
       <c r="N8">
-        <v>1.020980703421571</v>
+        <v>1.016245971645266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044206523589279</v>
+        <v>1.005637988933378</v>
       </c>
       <c r="D9">
-        <v>1.052563177271093</v>
+        <v>1.035109280544237</v>
       </c>
       <c r="E9">
-        <v>1.051869958938809</v>
+        <v>1.022131644487428</v>
       </c>
       <c r="F9">
-        <v>1.062018466855965</v>
+        <v>1.033797837058518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043447689491414</v>
+        <v>1.048787813199446</v>
       </c>
       <c r="J9">
-        <v>1.0499549077716</v>
+        <v>1.030993214203913</v>
       </c>
       <c r="K9">
-        <v>1.055672653924425</v>
+        <v>1.047657305464435</v>
       </c>
       <c r="L9">
-        <v>1.054981621361359</v>
+        <v>1.034875573642968</v>
       </c>
       <c r="M9">
-        <v>1.065098441416134</v>
+        <v>1.046365374777908</v>
       </c>
       <c r="N9">
-        <v>1.020455761612548</v>
+        <v>1.013750429889588</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04263654304556</v>
+        <v>0.9975963292063494</v>
       </c>
       <c r="D10">
-        <v>1.051531519388439</v>
+        <v>1.029994190060134</v>
       </c>
       <c r="E10">
-        <v>1.050524050613492</v>
+        <v>1.015666802121241</v>
       </c>
       <c r="F10">
-        <v>1.060656821375043</v>
+        <v>1.027273243936289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043085936983683</v>
+        <v>1.046504047976475</v>
       </c>
       <c r="J10">
-        <v>1.048923021859836</v>
+        <v>1.02590563967352</v>
       </c>
       <c r="K10">
-        <v>1.054922528283693</v>
+        <v>1.043842215226044</v>
       </c>
       <c r="L10">
-        <v>1.053918546625454</v>
+        <v>1.029758834109575</v>
       </c>
       <c r="M10">
-        <v>1.064016576921716</v>
+        <v>1.041166933723513</v>
       </c>
       <c r="N10">
-        <v>1.02010505131308</v>
+        <v>1.011998258688658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041957327980737</v>
+        <v>0.9940134093731156</v>
       </c>
       <c r="D11">
-        <v>1.051085278042012</v>
+        <v>1.027724136532201</v>
       </c>
       <c r="E11">
-        <v>1.049942235149113</v>
+        <v>1.012796510461825</v>
       </c>
       <c r="F11">
-        <v>1.060068234084552</v>
+        <v>1.024377678253986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042928121710911</v>
+        <v>1.045477732314283</v>
       </c>
       <c r="J11">
-        <v>1.048476075635133</v>
+        <v>1.023637375807868</v>
       </c>
       <c r="K11">
-        <v>1.054597344306137</v>
+        <v>1.042141494074972</v>
       </c>
       <c r="L11">
-        <v>1.053458410559253</v>
+        <v>1.027481071925552</v>
       </c>
       <c r="M11">
-        <v>1.063548347445032</v>
+        <v>1.038854058768691</v>
       </c>
       <c r="N11">
-        <v>1.01995301651804</v>
+        <v>1.011216712007601</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04170512740409</v>
+        <v>0.9926665131201928</v>
       </c>
       <c r="D12">
-        <v>1.050919596633123</v>
+        <v>1.026872239571264</v>
       </c>
       <c r="E12">
-        <v>1.049726270077934</v>
+        <v>1.011719104802596</v>
       </c>
       <c r="F12">
-        <v>1.059849760210192</v>
+        <v>1.023290992482692</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042869326160401</v>
+        <v>1.045090657225378</v>
       </c>
       <c r="J12">
-        <v>1.04831004065582</v>
+        <v>1.022784515057285</v>
       </c>
       <c r="K12">
-        <v>1.054476501144992</v>
+        <v>1.041502104288848</v>
       </c>
       <c r="L12">
-        <v>1.053287523781272</v>
+        <v>1.026625177368561</v>
       </c>
       <c r="M12">
-        <v>1.063374460999481</v>
+        <v>1.03798517572519</v>
       </c>
       <c r="N12">
-        <v>1.019896518077131</v>
+        <v>1.010922807731124</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041759221197277</v>
+        <v>0.9929561678461022</v>
       </c>
       <c r="D13">
-        <v>1.050955132554942</v>
+        <v>1.027055374802507</v>
       </c>
       <c r="E13">
-        <v>1.049772588644542</v>
+        <v>1.011950731037842</v>
       </c>
       <c r="F13">
-        <v>1.059896616624196</v>
+        <v>1.023524604148676</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042881945959494</v>
+        <v>1.045173955042218</v>
       </c>
       <c r="J13">
-        <v>1.048345656582343</v>
+        <v>1.022967932548826</v>
       </c>
       <c r="K13">
-        <v>1.054502424903175</v>
+        <v>1.041639608205682</v>
       </c>
       <c r="L13">
-        <v>1.053324178283372</v>
+        <v>1.026809222844649</v>
       </c>
       <c r="M13">
-        <v>1.063411758639675</v>
+        <v>1.038172004589365</v>
       </c>
       <c r="N13">
-        <v>1.019908638353406</v>
+        <v>1.010986017119906</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04193647916083</v>
+        <v>0.9939024071176081</v>
       </c>
       <c r="D14">
-        <v>1.051071581278171</v>
+        <v>1.02765389835079</v>
       </c>
       <c r="E14">
-        <v>1.049924380401802</v>
+        <v>1.012707684852107</v>
       </c>
       <c r="F14">
-        <v>1.06005017182407</v>
+        <v>1.024288083238575</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042923265238665</v>
+        <v>1.045445857423601</v>
       </c>
       <c r="J14">
-        <v>1.04846235152059</v>
+        <v>1.023567091836</v>
       </c>
       <c r="K14">
-        <v>1.054587356496544</v>
+        <v>1.042088800355612</v>
       </c>
       <c r="L14">
-        <v>1.053444284423746</v>
+        <v>1.027410526948317</v>
       </c>
       <c r="M14">
-        <v>1.063533973220727</v>
+        <v>1.038782438970841</v>
       </c>
       <c r="N14">
-        <v>1.019948346866719</v>
+        <v>1.011192492320699</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042045705601014</v>
+        <v>0.9944832630709803</v>
       </c>
       <c r="D15">
-        <v>1.051143338827653</v>
+        <v>1.028021503255284</v>
       </c>
       <c r="E15">
-        <v>1.050017923838221</v>
+        <v>1.013172559835371</v>
       </c>
       <c r="F15">
-        <v>1.060144802649433</v>
+        <v>1.024756993508144</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042948700111331</v>
+        <v>1.045612602284857</v>
       </c>
       <c r="J15">
-        <v>1.04853424859357</v>
+        <v>1.023934869268298</v>
       </c>
       <c r="K15">
-        <v>1.054639678347324</v>
+        <v>1.042364536038109</v>
       </c>
       <c r="L15">
-        <v>1.053518289549108</v>
+        <v>1.027779692126354</v>
       </c>
       <c r="M15">
-        <v>1.063609278303788</v>
+        <v>1.039157237215035</v>
       </c>
       <c r="N15">
-        <v>1.019972809163777</v>
+        <v>1.011319225751045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042681632927597</v>
+        <v>0.9978319168079242</v>
       </c>
       <c r="D16">
-        <v>1.051561145047563</v>
+        <v>1.030143649217726</v>
       </c>
       <c r="E16">
-        <v>1.05056268435726</v>
+        <v>1.015855749294512</v>
       </c>
       <c r="F16">
-        <v>1.06069590545223</v>
+        <v>1.027463882556167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043096385966597</v>
+        <v>1.046571353097521</v>
       </c>
       <c r="J16">
-        <v>1.048952681470445</v>
+        <v>1.0260547577832</v>
       </c>
       <c r="K16">
-        <v>1.054944101859783</v>
+        <v>1.043954030614105</v>
       </c>
       <c r="L16">
-        <v>1.053949088254706</v>
+        <v>1.029908650542489</v>
       </c>
       <c r="M16">
-        <v>1.064047656597982</v>
+        <v>1.041319087228971</v>
       </c>
       <c r="N16">
-        <v>1.020115137704594</v>
+        <v>1.01204963174436</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043080693465847</v>
+        <v>0.9999048348302344</v>
       </c>
       <c r="D17">
-        <v>1.051823351551407</v>
+        <v>1.0314597616908</v>
       </c>
       <c r="E17">
-        <v>1.050904659177439</v>
+        <v>1.017519438899998</v>
       </c>
       <c r="F17">
-        <v>1.061041870112208</v>
+        <v>1.029142610563388</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043188711396717</v>
+        <v>1.047162572086575</v>
       </c>
       <c r="J17">
-        <v>1.049215118296109</v>
+        <v>1.027366670586567</v>
       </c>
       <c r="K17">
-        <v>1.055134959045161</v>
+        <v>1.044937790638622</v>
       </c>
       <c r="L17">
-        <v>1.054219366313421</v>
+        <v>1.031227106997279</v>
       </c>
       <c r="M17">
-        <v>1.064322700681374</v>
+        <v>1.042658256118927</v>
       </c>
       <c r="N17">
-        <v>1.020204370040405</v>
+        <v>1.012501563046816</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043313516283934</v>
+        <v>1.00110426800983</v>
       </c>
       <c r="D18">
-        <v>1.051976337745153</v>
+        <v>1.032222132112694</v>
       </c>
       <c r="E18">
-        <v>1.051104220987059</v>
+        <v>1.018483034976793</v>
       </c>
       <c r="F18">
-        <v>1.061243763213576</v>
+        <v>1.030115034725527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04324244994859</v>
+        <v>1.047503825175505</v>
       </c>
       <c r="J18">
-        <v>1.049368180394382</v>
+        <v>1.028125622243033</v>
       </c>
       <c r="K18">
-        <v>1.055246246604069</v>
+        <v>1.045506920592075</v>
       </c>
       <c r="L18">
-        <v>1.054377032465158</v>
+        <v>1.03199017575189</v>
       </c>
       <c r="M18">
-        <v>1.064483150880978</v>
+        <v>1.043433430573611</v>
       </c>
       <c r="N18">
-        <v>1.020256400852623</v>
+        <v>1.01276297488687</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04339291259688</v>
+        <v>1.001511630430668</v>
       </c>
       <c r="D19">
-        <v>1.052028509772075</v>
+        <v>1.032481194395486</v>
       </c>
       <c r="E19">
-        <v>1.051172282263551</v>
+        <v>1.018810459149284</v>
       </c>
       <c r="F19">
-        <v>1.061312620087995</v>
+        <v>1.030445478106828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043260754172948</v>
+        <v>1.04761958068347</v>
       </c>
       <c r="J19">
-        <v>1.049420368411444</v>
+        <v>1.028383357536359</v>
       </c>
       <c r="K19">
-        <v>1.055284186615883</v>
+        <v>1.045700195236651</v>
       </c>
       <c r="L19">
-        <v>1.05443079549634</v>
+        <v>1.032249365111387</v>
       </c>
       <c r="M19">
-        <v>1.064537863891752</v>
+        <v>1.0436967514093</v>
       </c>
       <c r="N19">
-        <v>1.020274139138459</v>
+        <v>1.012851742750221</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043037872089863</v>
+        <v>0.9996834362611476</v>
       </c>
       <c r="D20">
-        <v>1.051795214550866</v>
+        <v>1.03131910589367</v>
       </c>
       <c r="E20">
-        <v>1.050867958817573</v>
+        <v>1.017341648843666</v>
       </c>
       <c r="F20">
-        <v>1.061004741256434</v>
+        <v>1.028963201067714</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043178817468651</v>
+        <v>1.04709951335322</v>
       </c>
       <c r="J20">
-        <v>1.049186962633664</v>
+        <v>1.027226566365901</v>
       </c>
       <c r="K20">
-        <v>1.055114485613883</v>
+        <v>1.044832729022232</v>
       </c>
       <c r="L20">
-        <v>1.054190366215901</v>
+        <v>1.031086269477168</v>
       </c>
       <c r="M20">
-        <v>1.064293188808529</v>
+        <v>1.042515193719713</v>
       </c>
       <c r="N20">
-        <v>1.020194798000857</v>
+        <v>1.012453303024238</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041884278616497</v>
+        <v>0.9936242135234581</v>
       </c>
       <c r="D21">
-        <v>1.051037288019234</v>
+        <v>1.027477891598134</v>
       </c>
       <c r="E21">
-        <v>1.049879677443084</v>
+        <v>1.01248509635386</v>
       </c>
       <c r="F21">
-        <v>1.060004949393119</v>
+        <v>1.024063570081037</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0429111025937</v>
+        <v>1.045365952545064</v>
       </c>
       <c r="J21">
-        <v>1.048427988295588</v>
+        <v>1.02339094374034</v>
       </c>
       <c r="K21">
-        <v>1.054562347779705</v>
+        <v>1.041956738940427</v>
       </c>
       <c r="L21">
-        <v>1.053408915372411</v>
+        <v>1.027233733408995</v>
       </c>
       <c r="M21">
-        <v>1.063497983102985</v>
+        <v>1.038602955181069</v>
       </c>
       <c r="N21">
-        <v>1.019936654412906</v>
+        <v>1.01113179141579</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041159490375138</v>
+        <v>0.9897212443697593</v>
       </c>
       <c r="D22">
-        <v>1.050561169650577</v>
+        <v>1.025012221704471</v>
       </c>
       <c r="E22">
-        <v>1.049259157328878</v>
+        <v>1.009366168782365</v>
       </c>
       <c r="F22">
-        <v>1.059377230186269</v>
+        <v>1.020918191208761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042741761968507</v>
+        <v>1.044241987170215</v>
       </c>
       <c r="J22">
-        <v>1.047950679974359</v>
+        <v>1.020919306939235</v>
       </c>
       <c r="K22">
-        <v>1.054214877013993</v>
+        <v>1.040103949292086</v>
       </c>
       <c r="L22">
-        <v>1.052917750050221</v>
+        <v>1.024754335812932</v>
       </c>
       <c r="M22">
-        <v>1.062998207739744</v>
+        <v>1.036086340628843</v>
       </c>
       <c r="N22">
-        <v>1.019774199326596</v>
+        <v>1.01027996475462</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041543664720577</v>
+        <v>0.9917994409625128</v>
       </c>
       <c r="D23">
-        <v>1.050813528721627</v>
+        <v>1.026324254358941</v>
       </c>
       <c r="E23">
-        <v>1.049588025689072</v>
+        <v>1.011025979969547</v>
       </c>
       <c r="F23">
-        <v>1.059709911260813</v>
+        <v>1.022591958182674</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042831628947209</v>
+        <v>1.044841127884715</v>
       </c>
       <c r="J23">
-        <v>1.04820372043545</v>
+        <v>1.022235440013294</v>
       </c>
       <c r="K23">
-        <v>1.054399107843482</v>
+        <v>1.04109048998359</v>
       </c>
       <c r="L23">
-        <v>1.053178110264794</v>
+        <v>1.026074302067772</v>
       </c>
       <c r="M23">
-        <v>1.063263128622614</v>
+        <v>1.037426000783723</v>
       </c>
       <c r="N23">
-        <v>1.019860333946051</v>
+        <v>1.010733579364073</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043057221048566</v>
+        <v>0.9997835065465084</v>
       </c>
       <c r="D24">
-        <v>1.051807928309598</v>
+        <v>1.031382678529998</v>
       </c>
       <c r="E24">
-        <v>1.050884541841076</v>
+        <v>1.017422005506901</v>
       </c>
       <c r="F24">
-        <v>1.061021517886198</v>
+        <v>1.029044289312842</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043183288459007</v>
+        <v>1.047128017972997</v>
       </c>
       <c r="J24">
-        <v>1.049199685005351</v>
+        <v>1.027289892755392</v>
       </c>
       <c r="K24">
-        <v>1.055123736788176</v>
+        <v>1.044880216284231</v>
       </c>
       <c r="L24">
-        <v>1.054203470057562</v>
+        <v>1.031149926286947</v>
       </c>
       <c r="M24">
-        <v>1.064306523886771</v>
+        <v>1.042579855782026</v>
       </c>
       <c r="N24">
-        <v>1.020199123245746</v>
+        <v>1.012475116412752</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044815875072951</v>
+        <v>1.008672077267675</v>
       </c>
       <c r="D25">
-        <v>1.052963656505506</v>
+        <v>1.037046182449091</v>
       </c>
       <c r="E25">
-        <v>1.052392747622107</v>
+        <v>1.024579014524907</v>
       </c>
       <c r="F25">
-        <v>1.062547394964673</v>
+        <v>1.03626880307132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043586923184081</v>
+        <v>1.049641496704751</v>
       </c>
       <c r="J25">
-        <v>1.050354939330049</v>
+        <v>1.032911074962725</v>
       </c>
       <c r="K25">
-        <v>1.055963204577954</v>
+        <v>1.049095390013478</v>
       </c>
       <c r="L25">
-        <v>1.055394027683757</v>
+        <v>1.036807389245715</v>
       </c>
       <c r="M25">
-        <v>1.06551817112825</v>
+        <v>1.048329023074749</v>
       </c>
       <c r="N25">
-        <v>1.020591605222244</v>
+        <v>1.014410591782995</v>
       </c>
     </row>
   </sheetData>
